--- a/src/main/resources/excel/学生基本信息表模板.xlsx
+++ b/src/main/resources/excel/学生基本信息表模板.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CWH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805BFB5E-6299-4B0C-BE9D-4DA90B1D5FD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,93 +35,208 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入学日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高考分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>138238923@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机1班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭住址（详细到社区（村））</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北省武汉市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北省武汉市xx区xx街道xx社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机与信息技术学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学与技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学院介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭成员1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭成员2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭成员3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父亲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母亲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治面貌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寝室号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚德6-101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博文1A-101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启智1A-101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>性别(0:女,1:男)</t>
-  </si>
-  <si>
-    <t>手机号</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>籍贯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入学日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高考分数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学院名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年级(1:大一,2:大二,3:大三,4:大四)</t>
-  </si>
-  <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t>民族</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王二麻子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>138238923@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖北</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机1班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>籍贯（省市）</t>
+  </si>
+  <si>
+    <t>与本人关系1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与本人关系2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与本人关系3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +261,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -171,18 +296,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -464,129 +604,260 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="20.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.75" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="S1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="U1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2">
+        <v>198003000000</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>4.2113519961016998E+17</v>
+      </c>
+      <c r="N2" s="4">
+        <v>35355</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>15722221111</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
+      <c r="S2" s="1">
+        <v>536</v>
+      </c>
+      <c r="T2" s="4">
+        <v>42248</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="1">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>15700000000</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>52</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>15711111111</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>435400</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>165888888</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4211962128948920</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="3">
-        <v>42248</v>
-      </c>
-      <c r="I2" s="3">
-        <v>35355</v>
-      </c>
-      <c r="J2">
-        <v>536</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2">
-        <v>3</v>
-      </c>
-      <c r="O2">
-        <v>22</v>
-      </c>
-      <c r="P2" t="s">
-        <v>22</v>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="U3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="U4" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="R2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/excel/学生基本信息表模板.xlsx
+++ b/src/main/resources/excel/学生基本信息表模板.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XDJ\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805BFB5E-6299-4B0C-BE9D-4DA90B1D5FD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,142 +53,187 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>138238923@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>籍贯（省市）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭住址（详细到社区（村））</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北省武汉市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北省武汉市xx区xx街道xx社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机与信息技术学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学与技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学院介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭成员1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭成员2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭成员3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父亲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母亲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寝室号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚德6-101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博文1A-101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启智1A-101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六级成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>民族</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>138238923@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机1班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家庭住址（详细到社区（村））</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖北省武汉市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖北省武汉市xx区xx街道xx社区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机与信息技术学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机科学与技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学院介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家庭成员1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家庭成员2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家庭成员3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李刚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父亲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王香</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>母亲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政治面貌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寝室号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厚德6-101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博文1A-101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启智1A-101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别(0:女,1:男)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>籍贯（省市）</t>
+    <t>政治面貌（中共党员/中共预备党员/共青团员/群众）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中共党员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>与本人关系1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>联系方式3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与本人关系3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>与本人关系2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>与本人关系3</t>
+    <t>联系方式1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -197,46 +241,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工作单位1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作单位2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作单位3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式3</t>
+    <t>计科1班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +287,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -296,7 +338,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -306,9 +348,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -322,6 +361,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,258 +667,271 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="53.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="R1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="V1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="10">
+        <v>2018</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="11">
+        <v>198003000000</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="10">
+        <v>24</v>
+      </c>
+      <c r="M2" s="11">
+        <v>4.2113519961016998E+17</v>
+      </c>
+      <c r="N2" s="12">
+        <v>35355</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>15722221111</v>
+      </c>
+      <c r="R2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="S2" s="10">
+        <v>536</v>
+      </c>
+      <c r="T2" s="12">
+        <v>42248</v>
+      </c>
+      <c r="U2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="U1" s="8" t="s">
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2" s="10">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="11">
+        <v>15700000000</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="10">
+        <v>52</v>
+      </c>
+      <c r="AG2" s="11">
+        <v>15711111111</v>
+      </c>
+      <c r="AL2" s="11"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="U3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2">
-        <v>198003000000</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1">
-        <v>24</v>
-      </c>
-      <c r="M2" s="2">
-        <v>4.2113519961016998E+17</v>
-      </c>
-      <c r="N2" s="4">
-        <v>35355</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>15722221111</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="1">
-        <v>536</v>
-      </c>
-      <c r="T2" s="4">
-        <v>42248</v>
-      </c>
-      <c r="U2" s="4" t="s">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="U4" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="1">
-        <v>50</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>15700000000</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>52</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>15711111111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="U3" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="U4" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="R2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
